--- a/outputs/ML_Results/carown_LR_new/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Frankfurt am Main.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ6" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ19" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ44" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ23" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="summ2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ8" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ0" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ5" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ11" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.278522634146493</v>
+        <v>1.672162974636225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3606872295617349</v>
+        <v>0.505047393369997</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7159940290253769</v>
+        <v>0.2879976810314824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190165884185127</v>
+        <v>0.6337571827056616</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9706168127593752</v>
+        <v>-0.7740030965008187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0221248111394859</v>
+        <v>0.10092748830955</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9150046903600273</v>
+        <v>-0.5503515036395378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03610554721233167</v>
+        <v>0.2536821029515781</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3678208379142681</v>
+        <v>-0.0334616080900342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5509020250377046</v>
+        <v>0.9593190568628985</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.003718518969590616</v>
+        <v>0.2377198247870475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9885951830299788</v>
+        <v>0.4573245424764488</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003523973277487844</v>
+        <v>0.0003751610622296193</v>
       </c>
       <c r="C8" t="n">
-        <v>6.193481252647978e-05</v>
+        <v>3.612610937800702e-05</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02500012104284655</v>
+        <v>0.0252259698264531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01190955314976863</v>
+        <v>0.01551477003117894</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1703054354046615</v>
+        <v>0.001610584989653289</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5652987711614115</v>
+        <v>0.9955998619458515</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6554485921482764</v>
+        <v>0.6385609292421136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.16613077581922</v>
+        <v>0.1893607036305128</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02379538849375501</v>
+        <v>0.144091608656773</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9664868946674235</v>
+        <v>0.801949193990448</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.877509666461703e-05</v>
+        <v>-0.0001056170972648823</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2135222121952051</v>
+        <v>0.106595852323245</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.585146519264601e-07</v>
+        <v>1.872186341265863e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2072771018629149</v>
+        <v>0.139928906368226</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.04740938136205215</v>
+        <v>-0.04492429463566298</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6903865640366225</v>
+        <v>0.7057013465326814</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02917203573569346</v>
+        <v>0.04564047827442865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7553018017526945</v>
+        <v>0.6297714480813539</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.126422989963119</v>
+        <v>-1.473321909125385</v>
       </c>
       <c r="C17" t="n">
-        <v>0.949804037517589</v>
+        <v>0.461805420632543</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02874301335527166</v>
+        <v>-0.01731773764945206</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1360139511661898</v>
+        <v>0.3805089792789921</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0169440034365335</v>
+        <v>-0.02147302143149235</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2789111031470615</v>
+        <v>0.1679981090421484</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.764555543867727</v>
+        <v>2.759794894739697</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3665132942438785</v>
+        <v>0.1594929013560776</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-5.424673759919239</v>
+        <v>-4.89275113655011</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002601713048877792</v>
+        <v>0.006523257515916048</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-8.409644130983269e-05</v>
+        <v>-0.0001991232814811675</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7403597904358186</v>
+        <v>0.4454985949333817</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9936173595290059</v>
+        <v>0.4562503912339155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6936991455566982</v>
+        <v>0.8554834348127394</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6563197207023438</v>
+        <v>0.4757403582710439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2559281863246352</v>
+        <v>0.3817579404541646</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9613348000047923</v>
+        <v>-0.7527401499045661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02860222045066927</v>
+        <v>0.08362583914261061</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9595713740629824</v>
+        <v>-0.7424456789818548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03138097373538529</v>
+        <v>0.09321262881485201</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3438796744843861</v>
+        <v>-0.1158669771167202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5783678965585325</v>
+        <v>0.847064872168394</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006140741065252778</v>
+        <v>0.08258932266043195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9820683911556892</v>
+        <v>0.7565015783649884</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003932024167540051</v>
+        <v>0.0003337536567941129</v>
       </c>
       <c r="C8" t="n">
-        <v>1.138215618426065e-05</v>
+        <v>0.0001517189919399458</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0245396163056383</v>
+        <v>0.02745461791295382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01412954141141888</v>
+        <v>0.006489989341735159</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1891568815176464</v>
+        <v>-0.0001966142446363137</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5274571418321549</v>
+        <v>0.9994674562896504</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.545714735545478</v>
+        <v>0.9022507713070158</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2394709039988051</v>
+        <v>0.05964305138547525</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04818711510738568</v>
+        <v>0.3632060427183976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9312001206212124</v>
+        <v>0.5183156228140505</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001155181047257434</v>
+        <v>-7.673750013699803e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0757172498232949</v>
+        <v>0.2409188489039286</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.071695321819873e-07</v>
+        <v>1.464460579059813e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1238968982806116</v>
+        <v>0.2466489906597914</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.05833093368128679</v>
+        <v>-0.03114366474226483</v>
       </c>
       <c r="C15" t="n">
-        <v>0.629723947639069</v>
+        <v>0.7933000630488057</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08425879668478367</v>
+        <v>0.06771842228186242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3823599632372104</v>
+        <v>0.4889266603336404</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003825486045543174</v>
+        <v>0.4059961243353169</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9985007152258399</v>
+        <v>0.8347358448091575</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01503438701966413</v>
+        <v>-0.02765959870279197</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4520014137951944</v>
+        <v>0.1542357879051211</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01147419358336524</v>
+        <v>-0.00955416543656777</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4767794593106197</v>
+        <v>0.5483463206330876</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.807394639720895</v>
+        <v>1.81966056611094</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3546686250482181</v>
+        <v>0.3409758166524334</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-5.202204756185062</v>
+        <v>-5.415799024902641</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007071690145769359</v>
+        <v>0.002719281352428305</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.000125671686040952</v>
+        <v>-4.015768445283904e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6263497340224068</v>
+        <v>0.8766957999098273</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8533037088774219</v>
+        <v>-0.1309038465665042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7324575685522811</v>
+        <v>0.9577397487190243</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2579037669777487</v>
+        <v>0.2534431309716517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6515955459130606</v>
+        <v>0.6499886175803725</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8186286480325159</v>
+        <v>-0.8625686155975583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07137155362638643</v>
+        <v>0.05183772344524614</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7430490355319489</v>
+        <v>-0.7013771047877712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1079410869592075</v>
+        <v>0.1221063503246291</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2904413059168201</v>
+        <v>0.04306282446424785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6635681506393386</v>
+        <v>0.9471012503926676</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2109021619202786</v>
+        <v>0.1679983394128737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4848457505917672</v>
+        <v>0.5558249071010166</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003287674597572241</v>
+        <v>0.0003431038906933317</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001793751226685234</v>
+        <v>0.0001191350316371129</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02606490776868987</v>
+        <v>0.02865004683103212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01036419156798893</v>
+        <v>0.004253443095184191</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1738015684963294</v>
+        <v>0.07793861432393218</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5513550882489408</v>
+        <v>0.7907417639501526</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.520485198276065</v>
+        <v>0.7896832620649182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2662676307845794</v>
+        <v>0.07347846055070306</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02493787548398741</v>
+        <v>0.1814126275205542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9649006682340696</v>
+        <v>0.7367253374446333</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.6453969136202e-05</v>
+        <v>-7.645189694006781e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2326092993136504</v>
+        <v>0.2308246045278738</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.088524804426304e-07</v>
+        <v>1.776479340369314e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.114331301310382</v>
+        <v>0.1646771077591365</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.008751034967652435</v>
+        <v>-0.002826234407127669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.940088081062999</v>
+        <v>0.9809497900300103</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06567754939480397</v>
+        <v>0.1065140988635711</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4803237933488929</v>
+        <v>0.2604665475993806</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6955199411038411</v>
+        <v>0.353025344878326</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7278622964657335</v>
+        <v>0.8602432063543523</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0215215336810899</v>
+        <v>-0.01152843355741163</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2667459042177055</v>
+        <v>0.5470038696807098</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01276087123962024</v>
+        <v>-0.01257806286489308</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4191084546074557</v>
+        <v>0.4188374580231657</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.247398489732796</v>
+        <v>0.890493927460334</v>
       </c>
       <c r="C20" t="n">
-        <v>0.519078546844254</v>
+        <v>0.6497195582705354</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-5.152256783978842</v>
+        <v>-5.245476132327433</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006329025296875202</v>
+        <v>0.003346638465218794</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001161451094696211</v>
+        <v>-0.0001262592067589034</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6465403600400754</v>
+        <v>0.6299108266629092</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.06535569298084988</v>
+        <v>0.6468586317751323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9794377108183455</v>
+        <v>0.797459089656408</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2374000247314582</v>
+        <v>0.8101150345044744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.675547897206056</v>
+        <v>0.1621035072878211</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8570904699302087</v>
+        <v>-0.6816003915348056</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05145283969206629</v>
+        <v>0.1214543584380646</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7674181851648214</v>
+        <v>-0.9292088963907977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08998509181308623</v>
+        <v>0.03829065259244378</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2131470729031854</v>
+        <v>-0.09523579801709221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7467753294483435</v>
+        <v>0.882868612448521</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1623378881502695</v>
+        <v>0.05237757720913231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5645043222865518</v>
+        <v>0.850815442082258</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003374877239585244</v>
+        <v>0.0003190942374539232</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001148299070240463</v>
+        <v>0.0002770946302994527</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02585575028708501</v>
+        <v>0.02515585696214161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0106629509654677</v>
+        <v>0.01038744500851906</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03180499359790029</v>
+        <v>-0.1258805412694997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9156536103489461</v>
+        <v>0.671494804967259</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.20260152848631</v>
+        <v>0.7678817559962517</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009279202856642013</v>
+        <v>0.09420779128269562</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7350573168782391</v>
+        <v>0.08295692068044741</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1782044847254028</v>
+        <v>0.8779827861184643</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001011385105641669</v>
+        <v>-4.455341349042893e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1152422289168749</v>
+        <v>0.4873274407866796</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.551581214847175e-08</v>
+        <v>1.679587245260622e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5259469710957568</v>
+        <v>0.1838131629696095</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03941647240593708</v>
+        <v>-0.05461164115631378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7398474942152451</v>
+        <v>0.6529751808625419</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1878768020876931</v>
+        <v>0.1779079311314036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06027363915710068</v>
+        <v>0.0707126776981831</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1343191443634349</v>
+        <v>0.9120394717135448</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9480646051695286</v>
+        <v>0.6556584716146887</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01067539303840706</v>
+        <v>-0.02417162914285941</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5780077574332143</v>
+        <v>0.2176495927082841</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01578544196055806</v>
+        <v>-0.0142703679663734</v>
       </c>
       <c r="C19" t="n">
-        <v>0.323272193804477</v>
+        <v>0.372390715713385</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.12759984184837</v>
+        <v>0.8190141485721918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5692766292796039</v>
+        <v>0.6766040515272878</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-5.212068008197935</v>
+        <v>-5.14613533595284</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006297836656874751</v>
+        <v>0.005697790332099573</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.327490628880052e-05</v>
+        <v>-1.030303977991659e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8430834580418299</v>
+        <v>0.9678848102664563</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6404137125330135</v>
+        <v>0.03464190343412259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7922166836372173</v>
+        <v>0.9893120024552509</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5528640353148211</v>
+        <v>0.5689825604637507</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3235477052674572</v>
+        <v>0.3172737091796255</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.023511259642394</v>
+        <v>-1.137718449834266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01982700247997243</v>
+        <v>0.009293796945929493</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8970237846961543</v>
+        <v>-0.8637079027632318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04630932915244758</v>
+        <v>0.05604364146191013</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02219501873382902</v>
+        <v>-0.2132384601159751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.972857820169587</v>
+        <v>0.7530684616275067</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01480909657543161</v>
+        <v>-0.001319883834603674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9562310022115134</v>
+        <v>0.9961809778136017</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003640483536315385</v>
+        <v>0.0003329178349601549</v>
       </c>
       <c r="C8" t="n">
-        <v>5.762400414550816e-05</v>
+        <v>0.0001885745760136578</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02997979340641226</v>
+        <v>0.02968256576332088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002582986236112603</v>
+        <v>0.003675298717834805</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1204142829979951</v>
+        <v>-0.06272436472038842</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6857394442532874</v>
+        <v>0.8383029375211434</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6537084232974802</v>
+        <v>0.7880959779293626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1536987122935545</v>
+        <v>0.08246010557998742</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06748066777962689</v>
+        <v>0.2061682446756038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9029838658549874</v>
+        <v>0.7095439743391893</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.570829500592907e-05</v>
+        <v>-7.030303518958355e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6973801860875111</v>
+        <v>0.2723516023508994</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.5186637919201e-07</v>
+        <v>1.637590446634805e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2407498654401821</v>
+        <v>0.2282990813353554</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.006518535029298552</v>
+        <v>-0.03820643756566747</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9567491397663384</v>
+        <v>0.7510216725255252</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.130655699912071</v>
+        <v>0.167030279067811</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1676920023526265</v>
+        <v>0.0945403391787823</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8634263648277986</v>
+        <v>0.4209965902053033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6655429172296878</v>
+        <v>0.8385994081518069</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02923899310614995</v>
+        <v>-0.02157496312498245</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1368911992778077</v>
+        <v>0.2814487187611151</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01579309671509535</v>
+        <v>-0.009678237432807102</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3069254912920374</v>
+        <v>0.5545861332118515</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.351824991155979</v>
+        <v>1.21265738577919</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4887179067547021</v>
+        <v>0.536598104977829</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-5.259300174786123</v>
+        <v>-5.367327943967443</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004068073575403521</v>
+        <v>0.006195708945574364</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.907145474860859e-05</v>
+        <v>6.905126958675532e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9121016453913993</v>
+        <v>0.7934996631501328</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8452723020652845</v>
+        <v>0.9959065391913923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7393131327646321</v>
+        <v>0.6893701316606046</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02790694933033776</v>
+        <v>0.7377681852814968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9636100826911647</v>
+        <v>0.1903637896697581</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5319341783320881</v>
+        <v>-0.8195746887380411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2745168277165259</v>
+        <v>0.06067342025705623</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3631467654316738</v>
+        <v>-0.8620784943289453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.464846957562088</v>
+        <v>0.05100885105152645</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02613072007995268</v>
+        <v>-0.2327637949693376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9676651298103713</v>
+        <v>0.7014615664283899</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3940252624751595</v>
+        <v>0.01096882314912709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2447764905180907</v>
+        <v>0.9674203753612922</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003435106310531549</v>
+        <v>0.0003647143485017309</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001585286849961856</v>
+        <v>4.861707381571144e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03086188370280935</v>
+        <v>0.02880072539023635</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003907590615952281</v>
+        <v>0.004939139822018089</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.04504938339999449</v>
+        <v>-0.1268788883217344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8792527767770429</v>
+        <v>0.6656706062544984</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5021231651572123</v>
+        <v>0.5664731781770493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2941088009617268</v>
+        <v>0.2234992759599961</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2256452670674267</v>
+        <v>-0.04512965914239275</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7042816232873578</v>
+        <v>0.9364907531985505</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.271691356778438e-05</v>
+        <v>-8.124496263916144e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2650782101747412</v>
+        <v>0.2191716742286171</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.137390995741165e-07</v>
+        <v>2.239338121624455e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09723215110916007</v>
+        <v>0.1000374096633332</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03714353413392758</v>
+        <v>0.04620144809329937</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7605267824423371</v>
+        <v>0.697030438054606</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.003963928133849727</v>
+        <v>0.05161625749182202</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9669863323854241</v>
+        <v>0.5831827034635921</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2327313242320856</v>
+        <v>1.417503906176338</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9088898409674223</v>
+        <v>0.4938835496942032</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03214765431339403</v>
+        <v>-0.03002496720138588</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1062178341305162</v>
+        <v>0.132081023957055</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01519137777115247</v>
+        <v>-0.01224269431021367</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3372390983475378</v>
+        <v>0.4395452036601688</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.781677036567016</v>
+        <v>1.505908866822109</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1620550295933063</v>
+        <v>0.4564903569571531</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-4.780416510589737</v>
+        <v>-6.192701178673451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01192360749329489</v>
+        <v>0.001488037875469385</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001608399846909334</v>
+        <v>-4.627709369111464e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5347398775515255</v>
+        <v>0.8564036925980576</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6716144972957303</v>
+        <v>1.102706590281378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7935949034686152</v>
+        <v>0.653180815273698</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5330576511942722</v>
+        <v>0.4211685610052472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3428831296469448</v>
+        <v>0.4308607510724102</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.003239850997311</v>
+        <v>-0.8686683062657161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02401767901151759</v>
+        <v>0.04331264555141054</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9746226897543863</v>
+        <v>-0.8153805243423222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03170470181009065</v>
+        <v>0.06730604576264414</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3327345974040111</v>
+        <v>-0.2469716762729432</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5855883126502999</v>
+        <v>0.688911883102415</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03253114556220969</v>
+        <v>0.02924150557346116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9055800167889045</v>
+        <v>0.9132723781678028</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003281998022128667</v>
+        <v>0.0003597941743888552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002932348680122697</v>
+        <v>5.322866759141981e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02343311910068134</v>
+        <v>0.02093949442087451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0231125110892956</v>
+        <v>0.03590123971976909</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01613776537941508</v>
+        <v>-0.000250102554138361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9571070171040418</v>
+        <v>0.9993183533399823</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7859983816917581</v>
+        <v>0.7093755575680654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09570836909985211</v>
+        <v>0.131920081443416</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3573135836625464</v>
+        <v>0.2673157213373172</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5274109547064344</v>
+        <v>0.6357391677822948</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.313230542689159e-05</v>
+        <v>-8.054173950222524e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.342376338068471</v>
+        <v>0.2110302058483711</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.562013744084432e-07</v>
+        <v>1.488177707230932e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2274434560462809</v>
+        <v>0.2407746074252697</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.05912233787213762</v>
+        <v>0.03710172379443806</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6280560468742672</v>
+        <v>0.7531788820623466</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1073849873121256</v>
+        <v>0.09162938695997816</v>
       </c>
       <c r="C16" t="n">
-        <v>0.276747658185457</v>
+        <v>0.3316190585660401</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7637060325254712</v>
+        <v>0.720397625538208</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7005377643844215</v>
+        <v>0.7107430512759452</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03840244057339118</v>
+        <v>-0.03148774390153871</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05679644443319222</v>
+        <v>0.1047111807478274</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006254399395928323</v>
+        <v>-0.0138638281558915</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7055629067083711</v>
+        <v>0.3701314042993408</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.647970468474143</v>
+        <v>2.440604692209505</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1696298473087963</v>
+        <v>0.2001769782917968</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-5.49807067008637</v>
+        <v>-5.020858991223633</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003095349168895198</v>
+        <v>0.005503431510400567</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-5.18753099573963e-05</v>
+        <v>-6.056661056368303e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8438735095787584</v>
+        <v>0.8124473099717637</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.483622046566502</v>
+        <v>2.064951020287864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8465112198741791</v>
+        <v>0.4177332325619724</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7582796081277425</v>
+        <v>0.2511846009517584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1676743484052839</v>
+        <v>0.6719781205673026</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6638418067684683</v>
+        <v>-0.8333019774591921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1238026136590724</v>
+        <v>0.07001987538872198</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8187598524818338</v>
+        <v>-0.8141442005357459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06250001378855068</v>
+        <v>0.08123760804366555</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1867514825601263</v>
+        <v>-0.493285287075707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.773289393722889</v>
+        <v>0.4300536472643863</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0151926067017959</v>
+        <v>0.2254484596920708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9547491801530705</v>
+        <v>0.4594151571805323</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003063419639729428</v>
+        <v>0.0003788753035719482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005459812175606651</v>
+        <v>2.786087093599238e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02915590410723036</v>
+        <v>0.02204023484805976</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0043440750116148</v>
+        <v>0.02902299000948656</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08673581123330039</v>
+        <v>-0.1713281364347352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7667776935494174</v>
+        <v>0.5703630325416207</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6764240355442319</v>
+        <v>0.3249121813086988</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1418916453593703</v>
+        <v>0.4853856730793827</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02702030870850461</v>
+        <v>-0.0104645008272867</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9606286086562842</v>
+        <v>0.9853920940563361</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.667482174838438e-05</v>
+        <v>-2.424401530871758e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3785798199203668</v>
+        <v>0.7078843738351862</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.504921098066759e-07</v>
+        <v>1.293987456538536e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2262747217496108</v>
+        <v>0.3492783599698565</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05000477745653488</v>
+        <v>0.0138545669778306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6792871278333149</v>
+        <v>0.9101621376799833</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1117198892917629</v>
+        <v>0.00908659665536582</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2489402150677452</v>
+        <v>0.9240370939369975</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9979916185641166</v>
+        <v>0.6786602851552778</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6157977592946581</v>
+        <v>0.7394254576667983</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02460691800561815</v>
+        <v>-0.03760602865411159</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2221514309108218</v>
+        <v>0.06461075693105724</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005013527459653415</v>
+        <v>-0.01629743933681781</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7521752298647079</v>
+        <v>0.3110677862869894</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.236748281648257</v>
+        <v>1.604231610451583</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5230190746497825</v>
+        <v>0.4112268608454289</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-5.092602149182962</v>
+        <v>-3.648671133312679</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004968054963484301</v>
+        <v>0.06758778544265617</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.074774619216872e-05</v>
+        <v>-0.0001455933067089353</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9664257483063722</v>
+        <v>0.5767943887607052</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2719858409923065</v>
+        <v>-0.303691092155034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9136090750249789</v>
+        <v>0.9035641629642884</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7589032904282687</v>
+        <v>0.7411052971858861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1865171766526127</v>
+        <v>0.2002444307766988</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7794762069584859</v>
+        <v>-0.9652502473746988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07645617626666945</v>
+        <v>0.02905829644666762</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6317191462640502</v>
+        <v>-0.93075621571642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1582309846044657</v>
+        <v>0.03959194441185235</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1212340726477077</v>
+        <v>-0.08053858249893259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8422365177169305</v>
+        <v>0.900897499048171</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08013109761950118</v>
+        <v>0.01074483089445204</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7757602442026938</v>
+        <v>0.9692826438609536</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003888323985931361</v>
+        <v>0.0003214709114309692</v>
       </c>
       <c r="C8" t="n">
-        <v>1.335658531026266e-05</v>
+        <v>0.0002716145239907202</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02484822001595397</v>
+        <v>0.0302886467654018</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01015571863121286</v>
+        <v>0.002708100999805209</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05800600906326274</v>
+        <v>-0.05424683615340244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8429221916971115</v>
+        <v>0.8537684367331619</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4950641443460931</v>
+        <v>0.565110874096217</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2726134532009904</v>
+        <v>0.2212532372240545</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08831920519385793</v>
+        <v>-0.03830380786754744</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8696374370561871</v>
+        <v>0.9450230512290125</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.500457351106321e-05</v>
+        <v>-5.851272051160087e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6938942022918568</v>
+        <v>0.3575442133755707</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.790116695572288e-07</v>
+        <v>1.645620501172164e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.16633645020784</v>
+        <v>0.1976411126498075</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02527717661713968</v>
+        <v>-0.03493219631673315</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8305301561314384</v>
+        <v>0.7709652524966588</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09743437053551486</v>
+        <v>0.09956830669488607</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3029356892386923</v>
+        <v>0.2957925190125954</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.321277200276139</v>
+        <v>1.068393565918078</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5114666538551583</v>
+        <v>0.5949939189220228</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03135883838926058</v>
+        <v>-0.03220677063407385</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1071016402132087</v>
+        <v>0.09875623743614248</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009451476175005897</v>
+        <v>-0.0008654886583131683</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5497576004895652</v>
+        <v>0.9577667340105369</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9837633387180559</v>
+        <v>1.921609598589369</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6154874545545301</v>
+        <v>0.3253715991439741</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-5.54778758825204</v>
+        <v>-6.098295895475914</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002739512320996173</v>
+        <v>0.001129172522815101</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2.898395203921311e-05</v>
+        <v>5.929397705205894e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9097867135050327</v>
+        <v>0.8174329354679826</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Frankfurt am Main.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,270 +466,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.672162974636225</v>
+        <v>1.052098821825256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.505047393369997</v>
+        <v>0.664697305106227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2879976810314824</v>
+        <v>0.5947806785042209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6337571827056616</v>
+        <v>2.071760747308136e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7740030965008187</v>
+        <v>0.0004153695402640497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10092748830955</v>
+        <v>1.338739682085475e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5503515036395378</v>
+        <v>0.02286927311550282</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2536821029515781</v>
+        <v>0.02514324913866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0334616080900342</v>
+        <v>-0.02702257945327612</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9593190568628985</v>
+        <v>0.9253226575781119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2377198247870475</v>
+        <v>0.5594025691338765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4573245424764488</v>
+        <v>0.245643117409292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003751610622296193</v>
+        <v>0.1656936245908426</v>
       </c>
       <c r="C8" t="n">
-        <v>3.612610937800702e-05</v>
+        <v>0.7712151361962314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0252259698264531</v>
+        <v>-0.0001173714396492495</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01551477003117894</v>
+        <v>0.05040533119791368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001610584989653289</v>
+        <v>1.961680119532347e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9955998619458515</v>
+        <v>0.1165970061099467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6385609292421136</v>
+        <v>-0.0688654885355888</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1893607036305128</v>
+        <v>0.5606956104916416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.144091608656773</v>
+        <v>0.03640670904440235</v>
       </c>
       <c r="C12" t="n">
-        <v>0.801949193990448</v>
+        <v>0.6995529731585599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001056170972648823</v>
+        <v>-1.750835030761406</v>
       </c>
       <c r="C13" t="n">
-        <v>0.106595852323245</v>
+        <v>0.3841335230638511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.872186341265863e-07</v>
+        <v>-0.01355214113504848</v>
       </c>
       <c r="C14" t="n">
-        <v>0.139928906368226</v>
+        <v>0.4886482431578396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.04492429463566298</v>
+        <v>-0.02262845624055782</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7057013465326814</v>
+        <v>0.1474764084601984</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04564047827442865</v>
+        <v>2.829720895597098</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6297714480813539</v>
+        <v>0.1480934399907452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.473321909125385</v>
+        <v>-4.706907607434827</v>
       </c>
       <c r="C17" t="n">
-        <v>0.461805420632543</v>
+        <v>0.008731484153410662</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01731773764945206</v>
+        <v>-0.0002263035481677278</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3805089792789921</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02147302143149235</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1679981090421484</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.759794894739697</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1594929013560776</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-4.89275113655011</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.006523257515916048</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001991232814811675</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4454985949333817</v>
+        <v>0.3881892568167298</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,270 +723,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4562503912339155</v>
+        <v>-0.6229105225476724</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8554834348127394</v>
+        <v>0.7978614209479367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4757403582710439</v>
+        <v>0.4765620633880731</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3817579404541646</v>
+        <v>0.0002405302578447723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7527401499045661</v>
+        <v>0.0003796340192461231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08362583914261061</v>
+        <v>5.0004754721794e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7424456789818548</v>
+        <v>0.02491171276469354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09321262881485201</v>
+        <v>0.01174321276760145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1158669771167202</v>
+        <v>-0.01226497689731865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.847064872168394</v>
+        <v>0.9663266274290957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08258932266043195</v>
+        <v>0.8407517487773027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7565015783649884</v>
+        <v>0.07707027144665063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003337536567941129</v>
+        <v>0.4116029715285877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001517189919399458</v>
+        <v>0.4596952480928475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02745461791295382</v>
+        <v>-6.558136360738908e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006489989341735159</v>
+        <v>0.2674177489629651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0001966142446363137</v>
+        <v>1.447343352766892e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9994674562896504</v>
+        <v>0.2407606955634189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9022507713070158</v>
+        <v>-0.05000639498513686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05964305138547525</v>
+        <v>0.6719448358851344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3632060427183976</v>
+        <v>0.06921946329806192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5183156228140505</v>
+        <v>0.4777257086333312</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.673750013699803e-05</v>
+        <v>0.3369890056536514</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2409188489039286</v>
+        <v>0.8624939972154926</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.464460579059813e-07</v>
+        <v>-0.02667526934326618</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2466489906597914</v>
+        <v>0.1649425736107243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03114366474226483</v>
+        <v>-0.008200697527349367</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7933000630488057</v>
+        <v>0.6053128425968604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06771842228186242</v>
+        <v>1.531128318787564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4889266603336404</v>
+        <v>0.419206870295229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4059961243353169</v>
+        <v>-5.269780734468935</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8347358448091575</v>
+        <v>0.003472979575859171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02765959870279197</v>
+        <v>-2.4428950963254e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1542357879051211</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.00955416543656777</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5483463206330876</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.81966056611094</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3409758166524334</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-5.415799024902641</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.002719281352428305</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.015768445283904e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8766957999098273</v>
+        <v>0.9248571336656467</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,270 +980,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1309038465665042</v>
+        <v>-1.167178780249513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9577397487190243</v>
+        <v>0.6241194858128942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2534431309716517</v>
+        <v>0.5430397803700043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6499886175803725</v>
+        <v>4.214335365770603e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8625686155975583</v>
+        <v>0.0003901472414564527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05183772344524614</v>
+        <v>3.418690090443912e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7013771047877712</v>
+        <v>0.02662683006484273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1221063503246291</v>
+        <v>0.006679666833274472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04306282446424785</v>
+        <v>0.04510752790487164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9471012503926676</v>
+        <v>0.8759347848461625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1679983394128737</v>
+        <v>0.6912986937268185</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5558249071010166</v>
+        <v>0.1126877332696458</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003431038906933317</v>
+        <v>0.1860084612209926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001191350316371129</v>
+        <v>0.7268396520315817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02865004683103212</v>
+        <v>-7.072725999214293e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004253443095184191</v>
+        <v>0.2268618653191996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07793861432393218</v>
+        <v>1.809173524306968e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7907417639501526</v>
+        <v>0.1495085969148503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7896832620649182</v>
+        <v>-0.02815896261079033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07347846055070306</v>
+        <v>0.8100179092320019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1814126275205542</v>
+        <v>0.1066517552469942</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7367253374446333</v>
+        <v>0.2569963948703772</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.645189694006781e-05</v>
+        <v>0.3481826857481797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2308246045278738</v>
+        <v>0.8615712561472249</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.776479340369314e-07</v>
+        <v>-0.01047817278364321</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1646771077591365</v>
+        <v>0.5775806842554052</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002826234407127669</v>
+        <v>-0.01120165219747877</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9809497900300103</v>
+        <v>0.4702211102019769</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1065140988635711</v>
+        <v>0.6849123694349918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2604665475993806</v>
+        <v>0.72534009102178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.353025344878326</v>
+        <v>-5.143255821086316</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8602432063543523</v>
+        <v>0.003924130013819513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01152843355741163</v>
+        <v>-0.0001254167112757667</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5470038696807098</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.01257806286489308</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4188374580231657</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.890493927460334</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6497195582705354</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-5.245476132327433</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.003346638465218794</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001262592067589034</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6299108266629092</v>
+        <v>0.6319813595514197</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,270 +1237,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6468586317751323</v>
+        <v>-0.6779349482677677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.797459089656408</v>
+        <v>0.7808852254398153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8101150345044744</v>
+        <v>0.5657542398496204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1621035072878211</v>
+        <v>3.272434998859875e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6816003915348056</v>
+        <v>0.0003565407579353134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1214543584380646</v>
+        <v>2.04015470959955e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9292088963907977</v>
+        <v>0.02304015236990134</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03829065259244378</v>
+        <v>0.01702191800691812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.09523579801709221</v>
+        <v>-0.1355292785839881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.882868612448521</v>
+        <v>0.6446730643874099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05237757720913231</v>
+        <v>0.7529439973510359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.850815442082258</v>
+        <v>0.09385258534836452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003190942374539232</v>
+        <v>0.1901747648454003</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002770946302994527</v>
+        <v>0.7208087535209584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02515585696214161</v>
+        <v>-4.489631918429713e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01038744500851906</v>
+        <v>0.4441557316190801</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1258805412694997</v>
+        <v>1.589139099441824e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.671494804967259</v>
+        <v>0.1980634667132252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7678817559962517</v>
+        <v>-0.06957119715252033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09420779128269562</v>
+        <v>0.5648310496958988</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08295692068044741</v>
+        <v>0.17604908373505</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8779827861184643</v>
+        <v>0.07289126176273596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.455341349042893e-05</v>
+        <v>0.6677146606705936</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4873274407866796</v>
+        <v>0.7430909192449673</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.679587245260622e-07</v>
+        <v>-0.02274620449885267</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1838131629696095</v>
+        <v>0.2406173662981268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.05461164115631378</v>
+        <v>-0.01268969986948737</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6529751808625419</v>
+        <v>0.4263182529647386</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1779079311314036</v>
+        <v>0.7986973035380481</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0707126776981831</v>
+        <v>0.6817366754839442</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9120394717135448</v>
+        <v>-4.942850712885959</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6556584716146887</v>
+        <v>0.00755952985752188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02417162914285941</v>
+        <v>3.933578147118748e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2176495927082841</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0142703679663734</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.372390715713385</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8190141485721918</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6766040515272878</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-5.14613533595284</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.005697790332099573</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.030303977991659e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9678848102664563</v>
+        <v>0.9877861627647562</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,270 +1494,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03464190343412259</v>
+        <v>-1.481450980811961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9893120024552509</v>
+        <v>0.5502914893534963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5689825604637507</v>
+        <v>0.524695852107919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3172737091796255</v>
+        <v>8.940175644618383e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.137718449834266</v>
+        <v>0.0003964549920773374</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009293796945929493</v>
+        <v>2.532766390956906e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8637079027632318</v>
+        <v>0.02661278294052487</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05604364146191013</v>
+        <v>0.007337608755719989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2132384601159751</v>
+        <v>-0.08450827631944886</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7530684616275067</v>
+        <v>0.7787464581275299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.001319883834603674</v>
+        <v>0.6555435158644147</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9961809778136017</v>
+        <v>0.1391476801402123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003329178349601549</v>
+        <v>0.2075613168414559</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001885745760136578</v>
+        <v>0.7019510634887771</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02968256576332088</v>
+        <v>-4.36379703812234e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003675298717834805</v>
+        <v>0.4539481313050326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.06272436472038842</v>
+        <v>1.680429246514149e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8383029375211434</v>
+        <v>0.2072406504042114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7880959779293626</v>
+        <v>-0.05086073871731513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08246010557998742</v>
+        <v>0.6692183101629088</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2061682446756038</v>
+        <v>0.173143852641073</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7095439743391893</v>
+        <v>0.08089513740242903</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.030303518958355e-05</v>
+        <v>0.6738950378201457</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2723516023508994</v>
+        <v>0.7417861333505316</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.637590446634805e-07</v>
+        <v>-0.02308092444374692</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2282990813353554</v>
+        <v>0.2394657310929109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03820643756566747</v>
+        <v>-0.007578382525477408</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7510216725255252</v>
+        <v>0.6413541785613012</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.167030279067811</v>
+        <v>0.6379813640451358</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0945403391787823</v>
+        <v>0.7425014403515897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4209965902053033</v>
+        <v>-5.285142349703421</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8385994081518069</v>
+        <v>0.00714616602409483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02157496312498245</v>
+        <v>9.6648584894823e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2814487187611151</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.009678237432807102</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5545861332118515</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.21265738577919</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.536598104977829</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-5.367327943967443</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.006195708945574364</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>6.905126958675532e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7934996631501328</v>
+        <v>0.7134322801698761</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,270 +1751,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9959065391913923</v>
+        <v>-0.3882540259012818</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6893701316606046</v>
+        <v>0.8718041018480562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7377681852814968</v>
+        <v>0.5118115570559523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1903637896697581</v>
+        <v>0.0001570651401529558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8195746887380411</v>
+        <v>0.0004129741471668901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06067342025705623</v>
+        <v>1.395352944433513e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8620784943289453</v>
+        <v>0.02565711401300973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05100885105152645</v>
+        <v>0.01066985347044199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2327637949693376</v>
+        <v>-0.1475710718725523</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7014615664283899</v>
+        <v>0.610208794371597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01096882314912709</v>
+        <v>0.4881562665310381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9674203753612922</v>
+        <v>0.2848479971554576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003647143485017309</v>
+        <v>0.01719282865536273</v>
       </c>
       <c r="C8" t="n">
-        <v>4.861707381571144e-05</v>
+        <v>0.9754704499197214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02880072539023635</v>
+        <v>-6.940391236130952e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004939139822018089</v>
+        <v>0.2476218096925861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1268788883217344</v>
+        <v>2.267493793470423e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6656706062544984</v>
+        <v>0.08936580997990705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5664731781770493</v>
+        <v>0.03004071111414158</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2234992759599961</v>
+        <v>0.7995312747486439</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04512965914239275</v>
+        <v>0.05359602423017304</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9364907531985505</v>
+        <v>0.5670719048981006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.124496263916144e-05</v>
+        <v>1.227976385739844</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2191716742286171</v>
+        <v>0.5524084086758094</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.239338121624455e-07</v>
+        <v>-0.02769428553299275</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1000374096633332</v>
+        <v>0.1607904834586483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04620144809329937</v>
+        <v>-0.01012583190748531</v>
       </c>
       <c r="C15" t="n">
-        <v>0.697030438054606</v>
+        <v>0.5214342902353326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05161625749182202</v>
+        <v>1.232373592146845</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5831827034635921</v>
+        <v>0.5373876189636709</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.417503906176338</v>
+        <v>-5.939438943998407</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4938835496942032</v>
+        <v>0.002329059056668093</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03002496720138588</v>
+        <v>-4.337355060519708e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.132081023957055</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.01224269431021367</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4395452036601688</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.505908866822109</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4564903569571531</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-6.192701178673451</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.001488037875469385</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.627709369111464e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8564036925980576</v>
+        <v>0.8659004813725795</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,270 +2008,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.102706590281378</v>
+        <v>-0.1747099857943566</v>
       </c>
       <c r="C2" t="n">
-        <v>0.653180815273698</v>
+        <v>0.9412141099000744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4211685610052472</v>
+        <v>0.4595862131304295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4308607510724102</v>
+        <v>0.000476853650612543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8686683062657161</v>
+        <v>0.0004080313745504626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04331264555141054</v>
+        <v>1.276932597530414e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8153805243423222</v>
+        <v>0.01810623265292477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06730604576264414</v>
+        <v>0.06245853139484056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2469716762729432</v>
+        <v>-0.02817921921690589</v>
       </c>
       <c r="C6" t="n">
-        <v>0.688911883102415</v>
+        <v>0.9222063081192301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02924150557346116</v>
+        <v>0.6008107256580207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9132723781678028</v>
+        <v>0.1926582965907333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003597941743888552</v>
+        <v>0.3068191485250252</v>
       </c>
       <c r="C8" t="n">
-        <v>5.322866759141981e-05</v>
+        <v>0.5816011985010336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02093949442087451</v>
+        <v>-7.23959791971197e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03590123971976909</v>
+        <v>0.2169844579049781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.000250102554138361</v>
+        <v>1.52039063510673e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9993183533399823</v>
+        <v>0.2200636555578426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7093755575680654</v>
+        <v>0.015748300371583</v>
       </c>
       <c r="C11" t="n">
-        <v>0.131920081443416</v>
+        <v>0.8929934959452847</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2673157213373172</v>
+        <v>0.0974448863891368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6357391677822948</v>
+        <v>0.301077872083813</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.054173950222524e-05</v>
+        <v>0.6593827809806408</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2110302058483711</v>
+        <v>0.7330810055943605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.488177707230932e-07</v>
+        <v>-0.02937175297438212</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2407746074252697</v>
+        <v>0.1254275419210771</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03710172379443806</v>
+        <v>-0.01181453341265681</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7531788820623466</v>
+        <v>0.4436492147511462</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09162938695997816</v>
+        <v>2.156829130877581</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3316190585660401</v>
+        <v>0.2522333771499041</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.720397625538208</v>
+        <v>-4.909908348030023</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7107430512759452</v>
+        <v>0.006406200048124341</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03148774390153871</v>
+        <v>-4.526866968285449e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1047111807478274</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0138638281558915</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3701314042993408</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.440604692209505</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2001769782917968</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-5.020858991223633</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.005503431510400567</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-6.056661056368303e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8124473099717637</v>
+        <v>0.8591818220672933</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,270 +2265,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.064951020287864</v>
+        <v>0.8771099881443509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4177332325619724</v>
+        <v>0.7202281398930895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2511846009517584</v>
+        <v>0.6097603349450933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6719781205673026</v>
+        <v>8.815847730192895e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8333019774591921</v>
+        <v>0.0004288177142998358</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07001987538872198</v>
+        <v>6.956657802326413e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8141442005357459</v>
+        <v>0.01969759083061768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08123760804366555</v>
+        <v>0.0448796664024812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.493285287075707</v>
+        <v>-0.1484370450759842</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4300536472643863</v>
+        <v>0.6163793066560619</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2254484596920708</v>
+        <v>0.208075307555953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4594151571805323</v>
+        <v>0.6490353956183872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003788753035719482</v>
+        <v>0.03044359884988731</v>
       </c>
       <c r="C8" t="n">
-        <v>2.786087093599238e-05</v>
+        <v>0.9567772622332983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02204023484805976</v>
+        <v>-3.508043489735363e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02902299000948656</v>
+        <v>0.54883195489178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1713281364347352</v>
+        <v>1.21992186587178e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5703630325416207</v>
+        <v>0.3683274620724972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3249121813086988</v>
+        <v>-0.009123496823977721</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4853856730793827</v>
+        <v>0.9402673911990854</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0104645008272867</v>
+        <v>0.01730933882175285</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9853920940563361</v>
+        <v>0.8553273057131039</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.424401530871758e-05</v>
+        <v>0.3536923803583629</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7078843738351862</v>
+        <v>0.8623485539800475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.293987456538536e-07</v>
+        <v>-0.03288898348951923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3492783599698565</v>
+        <v>0.09902106042829015</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0138545669778306</v>
+        <v>-0.01523309275098667</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9101621376799833</v>
+        <v>0.3431819899663255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00908659665536582</v>
+        <v>1.544927142371418</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9240370939369975</v>
+        <v>0.4261213974396162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6786602851552778</v>
+        <v>-3.507922470987482</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7394254576667983</v>
+        <v>0.07678574440851789</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03760602865411159</v>
+        <v>-0.0001426963509371707</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06461075693105724</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.01629743933681781</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3110677862869894</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.604231610451583</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4112268608454289</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-3.648671133312679</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.06758778544265617</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001455933067089353</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5767943887607052</v>
+        <v>0.585584261107911</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,270 +2522,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.303691092155034</v>
+        <v>-1.613088401201396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9035641629642884</v>
+        <v>0.5085195720377927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7411052971858861</v>
+        <v>0.5631259923737301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2002444307766988</v>
+        <v>2.522981917024618e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9652502473746988</v>
+        <v>0.0003767644145464838</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02905829644666762</v>
+        <v>6.039977791707492e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.93075621571642</v>
+        <v>0.02701632966580649</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03959194441185235</v>
+        <v>0.006171726464990251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.08053858249893259</v>
+        <v>-0.09071780777457517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.900897499048171</v>
+        <v>0.7542826843301575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01074483089445204</v>
+        <v>0.4566312660777812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9692826438609536</v>
+        <v>0.3122142944603153</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003214709114309692</v>
+        <v>-0.00982901310333088</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002716145239907202</v>
+        <v>0.9856990376631529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0302886467654018</v>
+        <v>-5.507298098753329e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002708100999805209</v>
+        <v>0.3421718313855523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05424683615340244</v>
+        <v>1.592435220612546e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8537684367331619</v>
+        <v>0.2020206009304043</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.565110874096217</v>
+        <v>-0.04460258132659781</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2212532372240545</v>
+        <v>0.7086312475594324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03830380786754744</v>
+        <v>0.1033567309922573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9450230512290125</v>
+        <v>0.2746951817163752</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.851272051160087e-05</v>
+        <v>0.9401740291355136</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3575442133755707</v>
+        <v>0.6362185301549693</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.645620501172164e-07</v>
+        <v>-0.03017420030293948</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1976411126498075</v>
+        <v>0.1162624674618169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03493219631673315</v>
+        <v>-0.0003990711584618483</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7709652524966588</v>
+        <v>0.9805036326648768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09956830669488607</v>
+        <v>1.658200452173791</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2957925190125954</v>
+        <v>0.3901158827459964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.068393565918078</v>
+        <v>-5.874002130033676</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5949939189220228</v>
+        <v>0.001563317356651549</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03220677063407385</v>
+        <v>7.373619511055572e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09875623743614248</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0008654886583131683</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9577667340105369</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.921609598589369</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3253715991439741</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-6.098295895475914</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.001129172522815101</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5.929397705205894e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8174329354679826</v>
+        <v>0.7735225086418067</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Frankfurt am Main.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.052098821825256</v>
+        <v>0.9997357918477001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.664697305106227</v>
+        <v>0.6786175026190527</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5947806785042209</v>
+        <v>0.5947794622473987</v>
       </c>
       <c r="C3" t="n">
-        <v>2.071760747308136e-05</v>
+        <v>2.073937054274132e-05</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004153695402640497</v>
+        <v>0.000415330450014912</v>
       </c>
       <c r="C4" t="n">
-        <v>1.338739682085475e-06</v>
+        <v>1.339332604089363e-06</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02286927311550282</v>
+        <v>0.02286491879856362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02514324913866</v>
+        <v>0.02516549879598402</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02702257945327612</v>
+        <v>-0.0267973444513611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9253226575781119</v>
+        <v>0.9259419733359042</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5594025691338765</v>
+        <v>0.5578362483716697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.245643117409292</v>
+        <v>0.2469964850474985</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1656936245908426</v>
+        <v>0.1658333803323996</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7712151361962314</v>
+        <v>0.7710674121228756</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0001173714396492495</v>
+        <v>-0.01170242741021217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05040533119791368</v>
+        <v>0.05097327845904162</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.961680119532347e-07</v>
+        <v>0.1933071761231654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1165970061099467</v>
+        <v>0.1197219481043615</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0688654885355888</v>
+        <v>-0.06614883208856916</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5606956104916416</v>
+        <v>0.5765143696366958</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03640670904440235</v>
+        <v>0.03844419458524279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6995529731585599</v>
+        <v>0.6817590655985954</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.750835030761406</v>
+        <v>-0.01724294392512374</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3841335230638511</v>
+        <v>0.3903126032142756</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01355214113504848</v>
+        <v>-0.01374392371951886</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4886482431578396</v>
+        <v>0.4822147931307894</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02262845624055782</v>
+        <v>-0.0224095613899037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1474764084601984</v>
+        <v>0.1505387170543077</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.829720895597098</v>
+        <v>0.0284170876778665</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1480934399907452</v>
+        <v>0.1485742285784029</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.706907607434827</v>
+        <v>-0.04680912802097192</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008731484153410662</v>
+        <v>0.009441822923421266</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002263035481677278</v>
+        <v>-0.01395219710515897</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3881892568167298</v>
+        <v>0.4006200497545477</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6229105225476724</v>
+        <v>-0.6260912962866002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7978614209479367</v>
+        <v>0.7955498980825677</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4765620633880731</v>
+        <v>0.4765845093620213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002405302578447723</v>
+        <v>0.0002407173987441065</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003796340192461231</v>
+        <v>0.0003796402175222075</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0004754721794e-06</v>
+        <v>4.996073300857604e-06</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02491171276469354</v>
+        <v>0.02491387407298054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01174321276760145</v>
+        <v>0.01172891495250835</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01226497689731865</v>
+        <v>-0.01226769410775101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9663266274290957</v>
+        <v>0.9663189431775263</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8407517487773027</v>
+        <v>0.8408731373041345</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07707027144665063</v>
+        <v>0.07705417366100004</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4116029715285877</v>
+        <v>0.4118440552759071</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4596952480928475</v>
+        <v>0.4594880706359576</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.558136360738908e-05</v>
+        <v>-0.006558617479745092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2674177489629651</v>
+        <v>0.2673138121224616</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.447343352766892e-07</v>
+        <v>0.1446278965512942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2407606955634189</v>
+        <v>0.2380138195591384</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05000639498513686</v>
+        <v>-0.0496868284686996</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6719448358851344</v>
+        <v>0.6743055792448871</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06921946329806192</v>
+        <v>0.06925346858853051</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4777257086333312</v>
+        <v>0.4752956793144919</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3369890056536514</v>
+        <v>0.003372176910568586</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8624939972154926</v>
+        <v>0.8621710530930266</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02667526934326618</v>
+        <v>-0.0266798522604985</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1649425736107243</v>
+        <v>0.1642821522389909</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.008200697527349367</v>
+        <v>-0.008199791708647958</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6053128425968604</v>
+        <v>0.6047112888162963</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.531128318787564</v>
+        <v>0.01535055931028569</v>
       </c>
       <c r="C16" t="n">
-        <v>0.419206870295229</v>
+        <v>0.4211042217099578</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.269780734468935</v>
+        <v>-0.05265744525497831</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003472979575859171</v>
+        <v>0.003653761144928464</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.4428950963254e-05</v>
+        <v>-0.001557856965445684</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9248571336656467</v>
+        <v>0.9243300884257268</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.167178780249513</v>
+        <v>-1.152227268019286</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6241194858128942</v>
+        <v>0.6265691509804029</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5430397803700043</v>
+        <v>0.5435283561146751</v>
       </c>
       <c r="C3" t="n">
-        <v>4.214335365770603e-05</v>
+        <v>4.176163756382986e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003901472414564527</v>
+        <v>0.0003900762708792328</v>
       </c>
       <c r="C4" t="n">
-        <v>3.418690090443912e-06</v>
+        <v>3.440201028619741e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02662683006484273</v>
+        <v>0.02662724671093836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006679666833274472</v>
+        <v>0.006676070189250999</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04510752790487164</v>
+        <v>0.04490438904461127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8759347848461625</v>
+        <v>0.8764958328729899</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6912986937268185</v>
+        <v>0.6910945306307396</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1126877332696458</v>
+        <v>0.1127188094463212</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1860084612209926</v>
+        <v>0.1868542976550022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7268396520315817</v>
+        <v>0.7255881869058043</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.072725999214293e-05</v>
+        <v>-0.007107732272256412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2268618653191996</v>
+        <v>0.2243819267759063</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.809173524306968e-07</v>
+        <v>0.182490978012824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1495085969148503</v>
+        <v>0.1429768586030102</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02815896261079033</v>
+        <v>-0.02634166235933814</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8100179092320019</v>
+        <v>0.8223530762973116</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1066517552469942</v>
+        <v>0.1048988217459075</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2569963948703772</v>
+        <v>0.26216445445554</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3481826857481797</v>
+        <v>0.003203080533933171</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8615712561472249</v>
+        <v>0.8724264653262224</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01047817278364321</v>
+        <v>-0.01030610288427303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5775806842554052</v>
+        <v>0.583495481961853</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01120165219747877</v>
+        <v>-0.01143348740607526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4702211102019769</v>
+        <v>0.4603928012953679</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6849123694349918</v>
+        <v>0.007303164207728252</v>
       </c>
       <c r="C16" t="n">
-        <v>0.72534009102178</v>
+        <v>0.7097651507955547</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.143255821086316</v>
+        <v>-0.05109633820265948</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003924130013819513</v>
+        <v>0.004310548828536714</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0001254167112757667</v>
+        <v>-0.008562950765199452</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6319813595514197</v>
+        <v>0.6054531669035018</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6779349482677677</v>
+        <v>-0.6672747466661919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7808852254398153</v>
+        <v>0.7831490028266623</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5657542398496204</v>
+        <v>0.5658296356845401</v>
       </c>
       <c r="C3" t="n">
-        <v>3.272434998859875e-05</v>
+        <v>3.271016169894367e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003565407579353134</v>
+        <v>0.0003565110290062835</v>
       </c>
       <c r="C4" t="n">
-        <v>2.04015470959955e-05</v>
+        <v>2.043921647874891e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02304015236990134</v>
+        <v>0.02303399483280544</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01702191800691812</v>
+        <v>0.01704458203511438</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1355292785839881</v>
+        <v>-0.1356586975318458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6446730643874099</v>
+        <v>0.6443486631203783</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7529439973510359</v>
+        <v>0.7530247819011262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09385258534836452</v>
+        <v>0.09378769755083211</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1901747648454003</v>
+        <v>0.1901786688912719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7208087535209584</v>
+        <v>0.7207863261454512</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.489631918429713e-05</v>
+        <v>-0.004505490222633339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4441557316190801</v>
+        <v>0.4424825612089542</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.589139099441824e-07</v>
+        <v>0.1596237539337229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1980634667132252</v>
+        <v>0.1929935291093211</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06957119715252033</v>
+        <v>-0.06955821108471458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5648310496958988</v>
+        <v>0.5652367777743225</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.17604908373505</v>
+        <v>0.1753866057705153</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07289126176273596</v>
+        <v>0.07257677353499208</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6677146606705936</v>
+        <v>0.006579344122083208</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7430909192449673</v>
+        <v>0.7463825118276194</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02274620449885267</v>
+        <v>-0.02266784513454098</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2406173662981268</v>
+        <v>0.2412515450226438</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01268969986948737</v>
+        <v>-0.01276732864193797</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4263182529647386</v>
+        <v>0.4230200100497379</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7986973035380481</v>
+        <v>0.008058702237236714</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6817366754839442</v>
+        <v>0.6810383664600044</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.942850712885959</v>
+        <v>-0.04938922786533027</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00755952985752188</v>
+        <v>0.00788741648531365</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.933578147118748e-06</v>
+        <v>6.439095830273942e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9877861627647562</v>
+        <v>0.9968406979279892</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.481450980811961</v>
+        <v>-1.445745601355892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5502914893534963</v>
+        <v>0.5573640009300523</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.524695852107919</v>
+        <v>0.524647226753889</v>
       </c>
       <c r="C3" t="n">
-        <v>8.940175644618383e-05</v>
+        <v>8.971772908183844e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003964549920773374</v>
+        <v>0.0003964140935798219</v>
       </c>
       <c r="C4" t="n">
-        <v>2.532766390956906e-06</v>
+        <v>2.541549411785671e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02661278294052487</v>
+        <v>0.02660315926312299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007337608755719989</v>
+        <v>0.007360598897368314</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.08450827631944886</v>
+        <v>-0.08473001121228436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7787464581275299</v>
+        <v>0.778179351540539</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6555435158644147</v>
+        <v>0.6557201231716578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1391476801402123</v>
+        <v>0.1389980260631975</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2075613168414559</v>
+        <v>0.2068606338318007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7019510634887771</v>
+        <v>0.7028749661846354</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.36379703812234e-05</v>
+        <v>-0.004395684739508852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4539481313050326</v>
+        <v>0.4504970638263711</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.680429246514149e-07</v>
+        <v>0.169643392331475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2072406504042114</v>
+        <v>0.200774221006741</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05086073871731513</v>
+        <v>-0.0518963787240413</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6692183101629088</v>
+        <v>0.6632974888280929</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.173143852641073</v>
+        <v>0.1715168519397445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08089513740242903</v>
+        <v>0.08206346302661398</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6738950378201457</v>
+        <v>0.006503943404497567</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7417861333505316</v>
+        <v>0.7498215985991755</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02308092444374692</v>
+        <v>-0.02288411746057091</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2394657310929109</v>
+        <v>0.2423471248772711</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.007578382525477408</v>
+        <v>-0.007765014057881377</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6413541785613012</v>
+        <v>0.6322803880978527</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6379813640451358</v>
+        <v>0.006398953306792462</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7425014403515897</v>
+        <v>0.7433006042274883</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.285142349703421</v>
+        <v>-0.05288088716279094</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00714616602409483</v>
+        <v>0.007295367553885641</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.6648584894823e-05</v>
+        <v>0.00574070530533622</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7134322801698761</v>
+        <v>0.730083957332311</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3882540259012818</v>
+        <v>-0.3834453619696406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8718041018480562</v>
+        <v>0.8725597834822617</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5118115570559523</v>
+        <v>0.511992051921257</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001570651401529558</v>
+        <v>0.0001568668751500364</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004129741471668901</v>
+        <v>0.000412951555165448</v>
       </c>
       <c r="C4" t="n">
-        <v>1.395352944433513e-06</v>
+        <v>1.397754554111656e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02565711401300973</v>
+        <v>0.02565212527016739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01066985347044199</v>
+        <v>0.01068208912391787</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1475710718725523</v>
+        <v>-0.1478157552463376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.610208794371597</v>
+        <v>0.6096225026713287</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4881562665310381</v>
+        <v>0.4883250627532524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2848479971554576</v>
+        <v>0.2846454302787023</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01719282865536273</v>
+        <v>0.0177236652647756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9754704499197214</v>
+        <v>0.9747139158169802</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.940391236130952e-05</v>
+        <v>-0.006960580456242196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2476218096925861</v>
+        <v>0.2463871450909181</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.267493793470423e-07</v>
+        <v>0.2271973741309214</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08936580997990705</v>
+        <v>0.087417755682677</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03004071111414158</v>
+        <v>0.03064467516929691</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7995312747486439</v>
+        <v>0.7958049062601897</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05359602423017304</v>
+        <v>0.0530591703365224</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5670719048981006</v>
+        <v>0.5682769919678066</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.227976385739844</v>
+        <v>0.01218038791215813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5524084086758094</v>
+        <v>0.5550662231607757</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02769428553299275</v>
+        <v>-0.02761877299601744</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1607904834586483</v>
+        <v>0.1613531549954051</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01012583190748531</v>
+        <v>-0.01020563532707977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5214342902353326</v>
+        <v>0.5172259741089924</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.232373592146845</v>
+        <v>0.01248459601121536</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5373876189636709</v>
+        <v>0.5348166091689771</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.939438943998407</v>
+        <v>-0.05927636820049541</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002329059056668093</v>
+        <v>0.002466206384998406</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.337355060519708e-05</v>
+        <v>-0.002953589041452589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8659004813725795</v>
+        <v>0.8554862481856134</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1747099857943566</v>
+        <v>-0.2012699826065827</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9412141099000744</v>
+        <v>0.9318769347158788</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4595862131304295</v>
+        <v>0.4594605010083772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000476853650612543</v>
+        <v>0.0004780990789605598</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004080313745504626</v>
+        <v>0.0004080830947641584</v>
       </c>
       <c r="C4" t="n">
-        <v>1.276932597530414e-06</v>
+        <v>1.271637732028123e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01810623265292477</v>
+        <v>0.01811754646416652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06245853139484056</v>
+        <v>0.06226431797196177</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02817921921690589</v>
+        <v>-0.02782565015953109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9222063081192301</v>
+        <v>0.9231803970695087</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6008107256580207</v>
+        <v>0.6005872752587261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1926582965907333</v>
+        <v>0.1928778531638347</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3068191485250252</v>
+        <v>0.3069844861672641</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5816011985010336</v>
+        <v>0.5814445672165829</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.23959791971197e-05</v>
+        <v>-0.007210088361971337</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2169844579049781</v>
+        <v>0.2188213682207344</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.52039063510673e-07</v>
+        <v>0.1504652886868657</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2200636555578426</v>
+        <v>0.2220560685241806</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.015748300371583</v>
+        <v>0.01621645914563614</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8929934959452847</v>
+        <v>0.8899364854959847</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0974448863891368</v>
+        <v>0.09883463127009243</v>
       </c>
       <c r="C12" t="n">
-        <v>0.301077872083813</v>
+        <v>0.291656747486892</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6593827809806408</v>
+        <v>0.006786406215835511</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7330810055943605</v>
+        <v>0.7251162397147067</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02937175297438212</v>
+        <v>-0.02952514635738795</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1254275419210771</v>
+        <v>0.1229660564365322</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01181453341265681</v>
+        <v>-0.01165349810817733</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4436492147511462</v>
+        <v>0.4492153193867533</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.156829130877581</v>
+        <v>0.0214841473965164</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2522333771499041</v>
+        <v>0.2570529104047347</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.909908348030023</v>
+        <v>-0.04911337050735574</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006406200048124341</v>
+        <v>0.006654926970379958</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.526866968285449e-05</v>
+        <v>-0.002512192061012547</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8591818220672933</v>
+        <v>0.8762522615809565</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8771099881443509</v>
+        <v>0.8501756708439603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7202281398930895</v>
+        <v>0.7267975120353676</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6097603349450933</v>
+        <v>0.6100299409435949</v>
       </c>
       <c r="C3" t="n">
-        <v>8.815847730192895e-06</v>
+        <v>8.778994126710649e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004288177142998358</v>
+        <v>0.0004288186995123578</v>
       </c>
       <c r="C4" t="n">
-        <v>6.956657802326413e-07</v>
+        <v>6.955357330379024e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01969759083061768</v>
+        <v>0.01971579972593966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0448796664024812</v>
+        <v>0.04466223191870407</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1484370450759842</v>
+        <v>-0.1484575397577481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6163793066560619</v>
+        <v>0.6163139513150058</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.208075307555953</v>
+        <v>0.2075840084939106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6490353956183872</v>
+        <v>0.6497736678275936</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03044359884988731</v>
+        <v>0.03071681125483029</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9567772622332983</v>
+        <v>0.9563885957601685</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.508043489735363e-05</v>
+        <v>-0.003498078618448865</v>
       </c>
       <c r="C9" t="n">
-        <v>0.54883195489178</v>
+        <v>0.5498027005557793</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.21992186587178e-07</v>
+        <v>0.120953078410121</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3683274620724972</v>
+        <v>0.3703648980698824</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.009123496823977721</v>
+        <v>-0.007324174628516456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9402673911990854</v>
+        <v>0.9520763898112584</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01730933882175285</v>
+        <v>0.01815837449001284</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8553273057131039</v>
+        <v>0.847266421415285</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3536923803583629</v>
+        <v>0.003629970604572951</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8623485539800475</v>
+        <v>0.8584571595463342</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03288898348951923</v>
+        <v>-0.03296765973342392</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09902106042829015</v>
+        <v>0.09775960454361927</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01523309275098667</v>
+        <v>-0.01516787151857983</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3431819899663255</v>
+        <v>0.3444509010881157</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.544927142371418</v>
+        <v>0.01560941080288363</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4261213974396162</v>
+        <v>0.4240659670522526</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.507922470987482</v>
+        <v>-0.03488844485343494</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07678574440851789</v>
+        <v>0.07960242349217331</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0001426963509371707</v>
+        <v>-0.008937762850207679</v>
       </c>
       <c r="C18" t="n">
-        <v>0.585584261107911</v>
+        <v>0.5888369360662946</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.613088401201396</v>
+        <v>-1.576742417586402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5085195720377927</v>
+        <v>0.5155368194098235</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5631259923737301</v>
+        <v>0.5632285145013652</v>
       </c>
       <c r="C3" t="n">
-        <v>2.522981917024618e-05</v>
+        <v>2.526765132187341e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003767644145464838</v>
+        <v>0.0003766901160125425</v>
       </c>
       <c r="C4" t="n">
-        <v>6.039977791707492e-06</v>
+        <v>6.067523878227072e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02701632966580649</v>
+        <v>0.02701054455231128</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006171726464990251</v>
+        <v>0.006184372039084666</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.09071780777457517</v>
+        <v>-0.09105794552056282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7542826843301575</v>
+        <v>0.7533810727890672</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4566312660777812</v>
+        <v>0.4569208774776847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3122142944603153</v>
+        <v>0.3118806358466827</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.00982901310333088</v>
+        <v>-0.01032117611646013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9856990376631529</v>
+        <v>0.9849820638796355</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.507298098753329e-05</v>
+        <v>-0.005543777154869707</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3421718313855523</v>
+        <v>0.3391060888701386</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.592435220612546e-07</v>
+        <v>0.161252656790007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2020206009304043</v>
+        <v>0.1934279913462604</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04460258132659781</v>
+        <v>-0.04532201771514061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7086312475594324</v>
+        <v>0.7045219268088874</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1033567309922573</v>
+        <v>0.1015669270538046</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2746951817163752</v>
+        <v>0.2803791976487588</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9401740291355136</v>
+        <v>0.009162670695486874</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6362185301549693</v>
+        <v>0.6445121789264859</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03017420030293948</v>
+        <v>-0.02997823052259735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1162624674618169</v>
+        <v>0.1180563244942387</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003990711584618483</v>
+        <v>-0.0006176521398439872</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9805036326648768</v>
+        <v>0.9697827899637121</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.658200452173791</v>
+        <v>0.01665984085576698</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3901158827459964</v>
+        <v>0.3912832903294854</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.874002130033676</v>
+        <v>-0.05873458876370904</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001563317356651549</v>
+        <v>0.001640346188805744</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.373619511055572e-05</v>
+        <v>0.004226080942325005</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7735225086418067</v>
+        <v>0.7942612996788538</v>
       </c>
     </row>
   </sheetData>
